--- a/EASE/EASE(S)-Repeated.xlsx
+++ b/EASE/EASE(S)-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D3E58A-C985-4AC2-9810-02589D5149FF}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="114_{49DAEF63-8251-465C-B396-F9CA6004331D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91F1CBAF-28EA-46B4-AB59-AD5A62980080}"/>
   <bookViews>
-    <workbookView xWindow="2145" yWindow="795" windowWidth="21645" windowHeight="14775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -40,7 +40,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -48,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="129">
   <si>
     <t>Group</t>
   </si>
@@ -416,9 +418,6 @@
     <t>EASE: Estimation Approach to Statistics with Excel</t>
   </si>
   <si>
-    <t>Version: 2.20191030</t>
-  </si>
-  <si>
     <t>Input Method: Summary Statistics</t>
   </si>
   <si>
@@ -434,10 +433,10 @@
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
   </si>
   <si>
-    <t>Retreived from https://github.com/cwendorf/BASE/tree/master/EASE</t>
+    <t>Version: 2.20200104</t>
   </si>
   <si>
-    <t>https://github.com/cwendorf/BASE/tree/master/EASE</t>
+    <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
 </sst>
 </file>
@@ -8638,23 +8637,23 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="K33" sqref="K33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="3" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="10" width="4.5703125" style="29" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="29"/>
-    <col min="18" max="19" width="4.5703125" style="29" customWidth="1"/>
-    <col min="20" max="16384" width="11.140625" style="29"/>
+    <col min="1" max="1" width="4.578125" style="3" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="10" width="4.578125" style="29" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="29"/>
+    <col min="18" max="19" width="4.578125" style="29" customWidth="1"/>
+    <col min="20" max="16384" width="11.15625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="121"/>
     </row>
-    <row r="2" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="121"/>
       <c r="B2" s="198" t="s">
         <v>121</v>
@@ -8677,7 +8676,7 @@
       <c r="P2" s="199"/>
       <c r="Q2" s="199"/>
     </row>
-    <row r="3" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="121"/>
       <c r="B3" s="200" t="s">
         <v>62</v>
@@ -8691,7 +8690,7 @@
       <c r="I3" s="197"/>
       <c r="J3" s="197"/>
       <c r="K3" s="200" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
@@ -8700,10 +8699,10 @@
       <c r="P3" s="200"/>
       <c r="Q3" s="200"/>
     </row>
-    <row r="4" spans="1:17" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="125"/>
       <c r="B4" s="200" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C4" s="200"/>
       <c r="D4" s="200"/>
@@ -8714,7 +8713,7 @@
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="201" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L4" s="200"/>
       <c r="M4" s="200"/>
@@ -8723,7 +8722,7 @@
       <c r="P4" s="200"/>
       <c r="Q4" s="200"/>
     </row>
-    <row r="5" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="121"/>
       <c r="I5" s="123"/>
       <c r="J5" s="123"/>
@@ -8735,7 +8734,7 @@
       <c r="P5" s="123"/>
       <c r="Q5" s="123"/>
     </row>
-    <row r="6" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="119" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A6" s="121"/>
       <c r="B6" s="7" t="s">
         <v>81</v>
@@ -8744,7 +8743,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="29" t="s">
         <v>96</v>
       </c>
@@ -8752,7 +8751,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="29" t="s">
         <v>97</v>
       </c>
@@ -8760,7 +8759,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="29" t="s">
         <v>110</v>
       </c>
@@ -8768,12 +8767,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="29" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B13" s="7" t="s">
         <v>83</v>
       </c>
@@ -8781,10 +8780,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K14"/>
     </row>
-    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="29" t="s">
         <v>63</v>
       </c>
@@ -8792,16 +8791,16 @@
         <v>99</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="29" t="s">
         <v>94</v>
@@ -8810,7 +8809,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="29" t="s">
         <v>95</v>
@@ -8819,7 +8818,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A20" s="29"/>
       <c r="B20" s="7" t="s">
         <v>86</v>
@@ -8828,7 +8827,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="26" t="s">
         <v>87</v>
@@ -8846,7 +8845,7 @@
       <c r="P22"/>
       <c r="Q22"/>
     </row>
-    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="26" t="s">
         <v>88</v>
@@ -8864,7 +8863,7 @@
       <c r="P23"/>
       <c r="Q23"/>
     </row>
-    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="26" t="s">
         <v>89</v>
@@ -8882,7 +8881,7 @@
       <c r="P24"/>
       <c r="Q24"/>
     </row>
-    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
         <v>120</v>
@@ -8891,7 +8890,7 @@
         <v>106</v>
       </c>
       <c r="K25" s="194" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -8900,7 +8899,7 @@
       <c r="P25"/>
       <c r="Q25"/>
     </row>
-    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="26" t="s">
         <v>90</v>
@@ -8918,7 +8917,7 @@
       <c r="P26"/>
       <c r="Q26"/>
     </row>
-    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="29"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -8927,13 +8926,13 @@
       <c r="P27"/>
       <c r="Q27"/>
     </row>
-    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
         <v>117</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -8942,7 +8941,7 @@
       <c r="P28"/>
       <c r="Q28"/>
     </row>
-    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="28"/>
       <c r="L29"/>
@@ -8952,7 +8951,7 @@
       <c r="P29"/>
       <c r="Q29"/>
     </row>
-    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="28" t="s">
         <v>91</v>
@@ -8967,13 +8966,13 @@
       <c r="P30"/>
       <c r="Q30"/>
     </row>
-    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="28" t="s">
         <v>92</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8982,7 +8981,7 @@
       <c r="P31"/>
       <c r="Q31"/>
     </row>
-    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29"/>
       <c r="B32" s="28" t="s">
         <v>93</v>
@@ -8997,7 +8996,7 @@
       <c r="P32"/>
       <c r="Q32"/>
     </row>
-    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -9006,7 +9005,7 @@
       <c r="P33"/>
       <c r="Q33"/>
     </row>
-    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="K34" s="194"/>
     </row>
   </sheetData>
@@ -9041,25 +9040,25 @@
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="5" customWidth="1"/>
-    <col min="2" max="5" width="11.140625" style="5"/>
-    <col min="6" max="6" width="11.140625" style="42"/>
-    <col min="7" max="8" width="11.140625" style="5"/>
-    <col min="9" max="10" width="4.5703125" style="5" customWidth="1"/>
-    <col min="11" max="15" width="11.140625" style="191"/>
-    <col min="16" max="16" width="11.140625" style="89"/>
-    <col min="17" max="17" width="11.140625" style="5"/>
-    <col min="18" max="18" width="4.5703125" style="5" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="5" hidden="1" customWidth="1"/>
-    <col min="20" max="26" width="11.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="5.5703125" style="5" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="5" customWidth="1"/>
+    <col min="2" max="5" width="11.15625" style="5"/>
+    <col min="6" max="6" width="11.15625" style="42"/>
+    <col min="7" max="8" width="11.15625" style="5"/>
+    <col min="9" max="10" width="4.578125" style="5" customWidth="1"/>
+    <col min="11" max="15" width="11.15625" style="191"/>
+    <col min="16" max="16" width="11.15625" style="89"/>
+    <col min="17" max="17" width="11.15625" style="5"/>
+    <col min="18" max="18" width="4.578125" style="5" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="5" hidden="1" customWidth="1"/>
+    <col min="20" max="26" width="11.15625" style="5" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="5.578125" style="5" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="0" style="5" hidden="1" customWidth="1"/>
-    <col min="29" max="16384" width="11.140625" style="5"/>
+    <col min="29" max="16384" width="11.15625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="F1" s="5"/>
       <c r="K1" s="42"/>
       <c r="L1" s="5"/>
@@ -9067,7 +9066,7 @@
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
     </row>
-    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="206" t="s">
         <v>28</v>
       </c>
@@ -9096,7 +9095,7 @@
       <c r="Y2" s="206"/>
       <c r="Z2" s="206"/>
     </row>
-    <row r="3" spans="2:28" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:28" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -9108,7 +9107,7 @@
       <c r="V3"/>
       <c r="W3"/>
     </row>
-    <row r="4" spans="2:28" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="12" t="s">
         <v>28</v>
       </c>
@@ -9132,7 +9131,7 @@
       <c r="Y4"/>
       <c r="Z4"/>
     </row>
-    <row r="5" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="52"/>
       <c r="L5" s="52"/>
       <c r="M5" s="52"/>
@@ -9149,7 +9148,7 @@
       <c r="Y5" s="52"/>
       <c r="Z5" s="52"/>
     </row>
-    <row r="6" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="205" t="s">
         <v>26</v>
       </c>
@@ -9204,7 +9203,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="211"/>
       <c r="C7" s="211"/>
       <c r="D7" s="211"/>
@@ -9257,7 +9256,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="212"/>
       <c r="C8" s="212"/>
       <c r="D8" s="212"/>
@@ -9310,7 +9309,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -9363,7 +9362,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="210" t="s">
         <v>27</v>
       </c>
@@ -9417,7 +9416,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="207"/>
       <c r="C11" s="207"/>
       <c r="D11" s="207"/>
@@ -9478,7 +9477,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="208"/>
       <c r="C12" s="208"/>
       <c r="D12" s="208"/>
@@ -9502,7 +9501,7 @@
       <c r="Y12" s="38"/>
       <c r="Z12" s="38"/>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="208"/>
       <c r="C13" s="208"/>
       <c r="D13" s="208"/>
@@ -9528,7 +9527,7 @@
       <c r="Y13" s="52"/>
       <c r="Z13" s="52"/>
     </row>
-    <row r="14" spans="2:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B14" s="209"/>
       <c r="C14" s="209"/>
       <c r="D14" s="209"/>
@@ -9552,7 +9551,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="K15" s="52"/>
       <c r="L15" s="52"/>
       <c r="M15" s="52"/>
@@ -9561,7 +9560,7 @@
       <c r="P15" s="52"/>
       <c r="Q15" s="52"/>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28" x14ac:dyDescent="0.55000000000000004">
       <c r="K16"/>
       <c r="L16" s="52"/>
       <c r="M16" s="52"/>
@@ -9570,7 +9569,7 @@
       <c r="P16" s="52"/>
       <c r="Q16" s="52"/>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
@@ -9578,7 +9577,7 @@
       <c r="O17" s="5"/>
       <c r="P17" s="5"/>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
@@ -9586,7 +9585,7 @@
       <c r="O18" s="5"/>
       <c r="P18" s="5"/>
     </row>
-    <row r="19" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B19" s="12" t="s">
         <v>35</v>
       </c>
@@ -9614,7 +9613,7 @@
       <c r="Y19" s="56"/>
       <c r="Z19" s="75"/>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
@@ -9638,7 +9637,7 @@
       <c r="Y20" s="52"/>
       <c r="Z20" s="52"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="205" t="s">
         <v>61</v>
       </c>
@@ -9692,7 +9691,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="203"/>
       <c r="C22" s="203"/>
       <c r="D22" s="203"/>
@@ -9739,7 +9738,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="204"/>
       <c r="C23" s="204"/>
       <c r="D23" s="204"/>
@@ -9783,7 +9782,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="204"/>
       <c r="C24" s="204"/>
       <c r="D24" s="204"/>
@@ -9824,7 +9823,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="202"/>
       <c r="C25" s="202"/>
       <c r="D25" s="202"/>
@@ -9862,7 +9861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="85"/>
       <c r="C26" s="85"/>
       <c r="D26" s="85"/>
@@ -9886,7 +9885,7 @@
       <c r="Y26" s="38"/>
       <c r="Z26" s="38"/>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S27" s="52"/>
       <c r="T27" s="52" t="s">
         <v>58</v>
@@ -9898,7 +9897,7 @@
       <c r="Y27" s="52"/>
       <c r="Z27" s="52"/>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="44"/>
       <c r="C28" s="44"/>
       <c r="E28" s="6"/>
@@ -9912,7 +9911,7 @@
       <c r="Y28" s="52"/>
       <c r="Z28" s="52"/>
     </row>
-    <row r="29" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B29" s="44"/>
       <c r="C29" s="44"/>
       <c r="E29" s="44"/>
@@ -9927,7 +9926,7 @@
       <c r="Y29" s="57"/>
       <c r="Z29" s="26"/>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="44"/>
       <c r="C30" s="44"/>
       <c r="E30" s="44"/>
@@ -9941,7 +9940,7 @@
       <c r="Y30" s="57"/>
       <c r="Z30" s="26"/>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="44"/>
       <c r="C31" s="44"/>
       <c r="E31" s="44"/>
@@ -9969,7 +9968,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="44"/>
       <c r="C32" s="44"/>
       <c r="E32" s="44"/>
@@ -9991,7 +9990,7 @@
       <c r="Y32" s="92"/>
       <c r="Z32" s="91"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
       <c r="E33" s="44"/>
@@ -10025,7 +10024,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
       <c r="E34" s="44"/>
@@ -10047,7 +10046,7 @@
       <c r="Y34" s="98"/>
       <c r="Z34" s="99"/>
     </row>
-    <row r="35" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B35" s="44"/>
       <c r="C35" s="44"/>
       <c r="E35" s="44"/>
@@ -10072,7 +10071,7 @@
       <c r="Y35" s="100"/>
       <c r="Z35" s="102"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="44"/>
       <c r="C36" s="44"/>
       <c r="E36" s="44"/>
@@ -10086,33 +10085,33 @@
       <c r="Y36" s="58"/>
       <c r="Z36" s="58"/>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="44"/>
       <c r="C37" s="44"/>
       <c r="E37" s="44"/>
       <c r="F37" s="44"/>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="44"/>
       <c r="C38" s="44"/>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="44"/>
       <c r="C39" s="44"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="44"/>
       <c r="C40" s="44"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="44"/>
       <c r="C41" s="44"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="44"/>
       <c r="C42" s="44"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="44"/>
       <c r="C43" s="44"/>
     </row>
@@ -10154,26 +10153,26 @@
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="33" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="32"/>
-    <col min="9" max="9" width="4.5703125" style="32" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="33" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="32"/>
-    <col min="18" max="18" width="4.5703125" style="33" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="33" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="32"/>
+    <col min="9" max="9" width="4.578125" style="32" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="33" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="32"/>
+    <col min="18" max="18" width="4.578125" style="33" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="32" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="32"/>
+    <col min="27" max="27" width="4.578125" style="32" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="5"/>
       <c r="J1" s="5"/>
       <c r="R1" s="5"/>
     </row>
-    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="213" t="s">
         <v>36</v>
@@ -10206,7 +10205,7 @@
       <c r="Y2" s="213"/>
       <c r="Z2" s="213"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3"/>
       <c r="B3" s="29"/>
       <c r="C3" s="29"/>
@@ -10225,7 +10224,7 @@
       <c r="P3" s="29"/>
       <c r="Q3" s="29"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="32"/>
       <c r="B4" s="7" t="s">
         <v>107</v>
@@ -10256,7 +10255,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A5" s="3"/>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -10276,7 +10275,7 @@
       <c r="Q5" s="29"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="3"/>
       <c r="B6" s="127" t="s">
         <v>61</v>
@@ -10319,7 +10318,7 @@
       <c r="Q6" s="214"/>
       <c r="S6" s="52"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="20" t="str">
         <f>Data!T7</f>
@@ -10379,7 +10378,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3"/>
       <c r="B8" s="22" t="str">
         <f>Data!T8</f>
@@ -10439,7 +10438,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="22" t="str">
         <f>Data!T9</f>
@@ -10499,7 +10498,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="3"/>
       <c r="B10" s="22" t="str">
         <f>Data!T10</f>
@@ -10559,7 +10558,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -10578,7 +10577,7 @@
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
     </row>
-    <row r="12" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="R12" s="33"/>
       <c r="T12" s="105"/>
@@ -10589,7 +10588,7 @@
       <c r="Y12" s="33"/>
       <c r="Z12" s="33"/>
     </row>
-    <row r="13" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="52" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="R13" s="33"/>
       <c r="T13" s="105"/>
@@ -10600,7 +10599,7 @@
       <c r="Y13" s="33"/>
       <c r="Z13" s="33"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="32"/>
       <c r="B14" s="7" t="s">
         <v>109</v>
@@ -10632,7 +10631,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A15" s="27"/>
       <c r="B15" s="28"/>
       <c r="C15" s="28"/>
@@ -10659,7 +10658,7 @@
       <c r="Y15" s="52"/>
       <c r="Z15" s="52"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A16" s="27"/>
       <c r="B16" s="117" t="s">
         <v>74</v>
@@ -10708,7 +10707,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A17" s="27"/>
       <c r="B17" s="45" t="s">
         <v>0</v>
@@ -10776,7 +10775,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="27"/>
       <c r="B18" s="45">
         <v>1.1000000000000001</v>
@@ -10850,7 +10849,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="27"/>
       <c r="B19" s="45">
         <v>1.1000000000000001</v>
@@ -10924,7 +10923,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A20" s="27"/>
       <c r="B20" s="45">
         <v>1.1000000000000001</v>
@@ -10998,7 +10997,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A21" s="27"/>
       <c r="B21" s="45">
         <v>2.1</v>
@@ -11051,7 +11050,7 @@
       <c r="Y21" s="107"/>
       <c r="Z21" s="107"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A22" s="27"/>
       <c r="B22" s="45">
         <v>2.1</v>
@@ -11118,7 +11117,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="27"/>
       <c r="B23" s="45">
         <v>2.1</v>
@@ -11192,7 +11191,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="27"/>
       <c r="B24" s="45">
         <v>3.1</v>
@@ -11266,7 +11265,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="27"/>
       <c r="B25" s="45">
         <v>3.1</v>
@@ -11340,7 +11339,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A26" s="27"/>
       <c r="B26" s="45">
         <v>3.1</v>
@@ -11414,7 +11413,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A27" s="27"/>
       <c r="B27" s="45">
         <v>4.0999999999999996</v>
@@ -11467,7 +11466,7 @@
       <c r="Y27" s="38"/>
       <c r="Z27" s="38"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A28" s="27"/>
       <c r="B28" s="46">
         <v>4.0999999999999996</v>
@@ -11528,7 +11527,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="27"/>
       <c r="B29" s="46">
         <v>4.0999999999999996</v>
@@ -11594,7 +11593,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="27"/>
       <c r="B30" s="45"/>
       <c r="C30" s="45"/>
@@ -11634,7 +11633,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="27"/>
       <c r="B31" s="31"/>
       <c r="C31" s="31"/>
@@ -11674,7 +11673,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="32" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A32" s="27"/>
       <c r="B32" s="41"/>
       <c r="C32" s="31"/>
@@ -11713,7 +11712,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="33" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A33" s="4"/>
       <c r="B33" s="41"/>
       <c r="C33" s="31"/>
@@ -11738,7 +11737,7 @@
       <c r="Y33" s="38"/>
       <c r="Z33" s="38"/>
     </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="115"/>
       <c r="C34" s="28"/>
@@ -11759,7 +11758,7 @@
       <c r="Y34" s="52"/>
       <c r="Z34" s="52"/>
     </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="115"/>
       <c r="C35" s="28"/>
@@ -11780,12 +11779,12 @@
       <c r="Y35" s="52"/>
       <c r="Z35" s="52"/>
     </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="S36" s="52"/>
       <c r="Y36" s="52"/>
       <c r="Z36" s="52"/>
     </row>
-    <row r="37" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
@@ -11807,7 +11806,7 @@
       <c r="Y37" s="52"/>
       <c r="Z37" s="52"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -11825,7 +11824,7 @@
       <c r="Y38" s="52"/>
       <c r="Z38" s="52"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="128" t="s">
         <v>61</v>
       </c>
@@ -11861,7 +11860,7 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
     </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="20" t="str">
         <f>B7</f>
         <v/>
@@ -11900,7 +11899,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="22" t="str">
         <f>B8</f>
         <v/>
@@ -11939,7 +11938,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="22" t="str">
         <f>B9</f>
         <v/>
@@ -11978,7 +11977,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="134" t="str">
         <f>B10</f>
         <v/>
@@ -12017,7 +12016,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="107"/>
       <c r="C44" s="2"/>
       <c r="D44" s="107"/>
@@ -12058,25 +12057,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView showRuler="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="52" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="52"/>
-    <col min="9" max="10" width="4.5703125" style="52" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="52"/>
-    <col min="18" max="18" width="4.7109375" style="52" customWidth="1"/>
-    <col min="19" max="19" width="4.7109375" style="52" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="52" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="52"/>
+    <col min="9" max="10" width="4.578125" style="52" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="52"/>
+    <col min="18" max="18" width="4.68359375" style="52" customWidth="1"/>
+    <col min="19" max="19" width="4.68359375" style="52" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="52" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="52" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="52"/>
+    <col min="27" max="27" width="4.578125" style="52" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="52"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="2" spans="2:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="213" t="s">
         <v>100</v>
       </c>
@@ -12096,7 +12095,7 @@
       <c r="P2" s="213"/>
       <c r="Q2" s="213"/>
     </row>
-    <row r="4" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B4" s="59" t="s">
         <v>107</v>
       </c>
@@ -12129,7 +12128,7 @@
       <c r="Y4" s="40"/>
       <c r="Z4" s="40"/>
     </row>
-    <row r="5" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K5" s="26"/>
       <c r="L5" s="26"/>
       <c r="M5" s="26"/>
@@ -12147,7 +12146,7 @@
       <c r="Y5" s="40"/>
       <c r="Z5" s="40"/>
     </row>
-    <row r="6" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="140" t="s">
         <v>61</v>
       </c>
@@ -12197,7 +12196,7 @@
       <c r="Y6" s="40"/>
       <c r="Z6" s="40"/>
     </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="111"/>
       <c r="C7" s="70" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$U$7:$X$10,2,FALSE))</f>
@@ -12261,7 +12260,7 @@
       <c r="Y7" s="40"/>
       <c r="Z7" s="40"/>
     </row>
-    <row r="8" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="195"/>
       <c r="C8" s="74" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$U$7:$X$10,2,FALSE))</f>
@@ -12325,7 +12324,7 @@
       <c r="Y8" s="40"/>
       <c r="Z8" s="40"/>
     </row>
-    <row r="9" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B9" s="109"/>
       <c r="C9" s="109"/>
       <c r="D9" s="109"/>
@@ -12350,7 +12349,7 @@
       <c r="Y9" s="40"/>
       <c r="Z9" s="40"/>
     </row>
-    <row r="10" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B10" s="154" t="s">
         <v>112</v>
       </c>
@@ -12398,7 +12397,7 @@
       <c r="Y10" s="40"/>
       <c r="Z10" s="40"/>
     </row>
-    <row r="11" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B11" s="142" t="s">
         <v>101</v>
       </c>
@@ -12464,7 +12463,7 @@
       <c r="Y11" s="40"/>
       <c r="Z11" s="40"/>
     </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
       <c r="D12" s="38"/>
@@ -12489,7 +12488,7 @@
       <c r="Y12" s="40"/>
       <c r="Z12" s="40"/>
     </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="R13" s="162"/>
       <c r="S13" s="40"/>
       <c r="T13" s="40"/>
@@ -12500,7 +12499,7 @@
       <c r="Y13" s="40"/>
       <c r="Z13" s="40"/>
     </row>
-    <row r="14" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B14" s="59" t="s">
         <v>109</v>
       </c>
@@ -12530,7 +12529,7 @@
       <c r="Y14" s="40"/>
       <c r="Z14" s="40"/>
     </row>
-    <row r="15" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B15" s="35"/>
       <c r="C15" s="35"/>
       <c r="D15" s="35"/>
@@ -12548,7 +12547,7 @@
       <c r="Y15" s="40"/>
       <c r="Z15" s="40"/>
     </row>
-    <row r="16" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="139" t="s">
         <v>74</v>
       </c>
@@ -12601,7 +12600,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="41" t="s">
         <v>0</v>
       </c>
@@ -12671,7 +12670,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12751,7 +12750,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B19" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12831,7 +12830,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B20" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -12890,7 +12889,7 @@
       <c r="Y20" s="175"/>
       <c r="Z20" s="175"/>
     </row>
-    <row r="21" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B21" s="41">
         <v>2.1</v>
       </c>
@@ -12963,7 +12962,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="41">
         <v>2.1</v>
       </c>
@@ -13043,7 +13042,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="41">
         <v>2.1</v>
       </c>
@@ -13120,7 +13119,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="41">
         <v>2.75</v>
       </c>
@@ -13197,7 +13196,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="25" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B25" s="41">
         <v>2.75</v>
       </c>
@@ -13253,7 +13252,7 @@
       <c r="Y25" s="177"/>
       <c r="Z25" s="177"/>
     </row>
-    <row r="26" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B26" s="41">
         <v>2.75</v>
       </c>
@@ -13319,7 +13318,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="115"/>
       <c r="C27" s="138"/>
       <c r="D27" s="138"/>
@@ -13374,7 +13373,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="115"/>
       <c r="C28" s="115"/>
       <c r="D28" s="138"/>
@@ -13432,7 +13431,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B29" s="115"/>
       <c r="C29" s="115"/>
       <c r="D29" s="138"/>
@@ -13471,7 +13470,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="148" t="s">
         <v>103</v>
       </c>
@@ -13503,7 +13502,7 @@
       <c r="Y30" s="177"/>
       <c r="Z30" s="177"/>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="41">
         <v>1.1000000000000001</v>
       </c>
@@ -13560,7 +13559,7 @@
       <c r="T31" s="40"/>
       <c r="U31" s="40"/>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="41">
         <v>3.15</v>
       </c>
@@ -13615,7 +13614,7 @@
       </c>
       <c r="S32" s="40"/>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="41"/>
       <c r="C33" s="138"/>
       <c r="D33" s="41"/>
@@ -13632,7 +13631,7 @@
       <c r="Q33" s="115"/>
       <c r="S33" s="40"/>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="41"/>
       <c r="C34" s="138"/>
       <c r="D34" s="41"/>
@@ -13665,7 +13664,7 @@
       <c r="Y34" s="40"/>
       <c r="Z34" s="40"/>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="41"/>
       <c r="C35" s="138"/>
       <c r="D35" s="41"/>
@@ -13698,7 +13697,7 @@
       <c r="Y35" s="40"/>
       <c r="Z35" s="40"/>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="41"/>
       <c r="C36" s="138"/>
       <c r="D36" s="41"/>
@@ -13722,7 +13721,7 @@
       <c r="Y36" s="40"/>
       <c r="Z36" s="40"/>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
@@ -13744,7 +13743,7 @@
       <c r="Y37" s="40"/>
       <c r="Z37" s="40"/>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="K38" s="179"/>
       <c r="L38" s="179"/>
       <c r="M38" s="179"/>
@@ -13762,7 +13761,7 @@
       <c r="Y38" s="162"/>
       <c r="Z38" s="162"/>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="140" t="s">
         <v>61</v>
       </c>
@@ -13806,7 +13805,7 @@
       <c r="Y39" s="162"/>
       <c r="Z39" s="162"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="70" t="str">
         <f>IF(B7="","",B7)</f>
         <v/>
@@ -13854,7 +13853,7 @@
       <c r="Y40" s="162"/>
       <c r="Z40" s="162"/>
     </row>
-    <row r="41" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B41" s="141" t="str">
         <f>IF(B8="","",B8)</f>
         <v/>
@@ -13902,7 +13901,7 @@
       <c r="Y41" s="162"/>
       <c r="Z41" s="162"/>
     </row>
-    <row r="42" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B42" s="38"/>
       <c r="C42" s="38"/>
       <c r="D42" s="38"/>
@@ -13927,7 +13926,7 @@
       <c r="Y42" s="162"/>
       <c r="Z42" s="162"/>
     </row>
-    <row r="43" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B43" s="155" t="s">
         <v>112</v>
       </c>
@@ -13971,7 +13970,7 @@
       <c r="Y43" s="162"/>
       <c r="Z43" s="162"/>
     </row>
-    <row r="44" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B44" s="142" t="s">
         <v>101</v>
       </c>
@@ -14017,7 +14016,7 @@
       <c r="Y44" s="162"/>
       <c r="Z44" s="162"/>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="38"/>
       <c r="C45" s="38"/>
       <c r="D45" s="38"/>
@@ -14043,7 +14042,7 @@
       <c r="Z45" s="162"/>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="1"/>
+  <sheetProtection sheet="1" selectLockedCells="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="G6:H6"/>
@@ -14071,21 +14070,21 @@
       <selection activeCell="L40" sqref="L40:L44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="4.5703125" style="29" customWidth="1"/>
-    <col min="2" max="8" width="11.140625" style="29"/>
-    <col min="9" max="9" width="4.5703125" style="29" customWidth="1"/>
-    <col min="10" max="10" width="4.5703125" style="32" customWidth="1"/>
-    <col min="11" max="17" width="11.140625" style="32"/>
-    <col min="18" max="18" width="4.5703125" style="32" customWidth="1"/>
-    <col min="19" max="19" width="4.5703125" style="32" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.578125" style="29" customWidth="1"/>
+    <col min="2" max="8" width="11.15625" style="29"/>
+    <col min="9" max="9" width="4.578125" style="29" customWidth="1"/>
+    <col min="10" max="10" width="4.578125" style="32" customWidth="1"/>
+    <col min="11" max="17" width="11.15625" style="32"/>
+    <col min="18" max="18" width="4.578125" style="32" customWidth="1"/>
+    <col min="19" max="19" width="4.578125" style="32" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="0" style="32" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="4.5703125" style="32" hidden="1" customWidth="1"/>
-    <col min="28" max="16384" width="11.140625" style="32"/>
+    <col min="27" max="27" width="4.578125" style="32" hidden="1" customWidth="1"/>
+    <col min="28" max="16384" width="11.15625" style="32"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" s="120" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="119"/>
       <c r="B1" s="119"/>
       <c r="C1" s="119"/>
@@ -14096,7 +14095,7 @@
       <c r="H1" s="119"/>
       <c r="I1" s="119"/>
     </row>
-    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" s="120" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="5"/>
       <c r="B2" s="213" t="s">
         <v>40</v>
@@ -14129,7 +14128,7 @@
       <c r="Y2" s="213"/>
       <c r="Z2" s="213"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="32"/>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -14139,7 +14138,7 @@
       <c r="G3" s="33"/>
       <c r="H3" s="33"/>
     </row>
-    <row r="4" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A4" s="32"/>
       <c r="B4" s="8" t="s">
         <v>107</v>
@@ -14164,7 +14163,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
       <c r="L5" s="29"/>
@@ -14175,7 +14174,7 @@
       <c r="Q5" s="29"/>
       <c r="S5" s="52"/>
     </row>
-    <row r="6" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B6" s="62" t="s">
         <v>61</v>
       </c>
@@ -14219,7 +14218,7 @@
       <c r="Q6" s="214"/>
       <c r="S6" s="52"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="20" t="str">
         <f>IF(D7="","","1 vs. 2")</f>
         <v/>
@@ -14278,7 +14277,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="22" t="str">
         <f>IF(D8="","","1 vs. 3")</f>
         <v/>
@@ -14337,7 +14336,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="22" t="str">
         <f>IF(D9="","","2 vs. 3")</f>
         <v/>
@@ -14396,7 +14395,7 @@
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="22" t="str">
         <f>IF(D10="","","1 vs. 4")</f>
         <v/>
@@ -14455,7 +14454,7 @@
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B11" s="22" t="str">
         <f>IF(D11="","","2 vs. 4")</f>
         <v/>
@@ -14514,7 +14513,7 @@
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B12" s="24" t="str">
         <f>IF(D12="","","3 vs. 4")</f>
         <v/>
@@ -14573,7 +14572,7 @@
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -14590,7 +14589,7 @@
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="A14" s="32"/>
       <c r="B14" s="8" t="s">
         <v>109</v>
@@ -14614,7 +14613,7 @@
       <c r="Y14" s="52"/>
       <c r="Z14" s="52"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="J15" s="29"/>
       <c r="K15" s="29"/>
       <c r="L15" s="29"/>
@@ -14632,7 +14631,7 @@
       <c r="Y15" s="52"/>
       <c r="Z15" s="52"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B16" s="116" t="s">
         <v>74</v>
       </c>
@@ -14679,7 +14678,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="48" t="s">
         <v>0</v>
       </c>
@@ -14745,7 +14744,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="48">
         <v>1.1000000000000001</v>
       </c>
@@ -14817,7 +14816,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="48">
         <v>1.1000000000000001</v>
       </c>
@@ -14889,7 +14888,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="20" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B20" s="48">
         <v>1.1000000000000001</v>
       </c>
@@ -14961,7 +14960,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="48">
         <v>2.1</v>
       </c>
@@ -15033,7 +15032,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="22" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B22" s="48">
         <v>2.1</v>
       </c>
@@ -15105,7 +15104,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="23" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B23" s="48">
         <v>2.1</v>
       </c>
@@ -15156,7 +15155,7 @@
       <c r="Y23" s="109"/>
       <c r="Z23" s="109"/>
     </row>
-    <row r="24" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B24" s="48">
         <v>3.1</v>
       </c>
@@ -15221,7 +15220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B25" s="48">
         <v>3.1</v>
       </c>
@@ -15293,7 +15292,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="48">
         <v>3.1</v>
       </c>
@@ -15365,7 +15364,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15437,7 +15436,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15509,7 +15508,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="48">
         <v>4.0999999999999996</v>
       </c>
@@ -15581,7 +15580,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="30" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B30" s="48">
         <v>5.0999999999999996</v>
       </c>
@@ -15653,7 +15652,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="31" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B31" s="48">
         <v>5.0999999999999996</v>
       </c>
@@ -15704,7 +15703,7 @@
       <c r="Y31" s="52"/>
       <c r="Z31" s="52"/>
     </row>
-    <row r="32" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B32" s="48">
         <v>5.0999999999999996</v>
       </c>
@@ -15762,7 +15761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B33" s="48">
         <v>6.1</v>
       </c>
@@ -15826,7 +15825,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="48">
         <v>6.1</v>
       </c>
@@ -15889,7 +15888,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="48">
         <v>6.1</v>
       </c>
@@ -15952,7 +15951,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="36" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="28"/>
       <c r="C36" s="28"/>
       <c r="D36" s="28"/>
@@ -15982,7 +15981,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="37" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:26" ht="15.6" x14ac:dyDescent="0.6">
       <c r="B37" s="59" t="s">
         <v>108</v>
       </c>
@@ -16024,7 +16023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B38" s="52"/>
       <c r="C38" s="52"/>
       <c r="D38" s="52"/>
@@ -16062,7 +16061,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="39" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B39" s="103" t="s">
         <v>61</v>
       </c>
@@ -16103,7 +16102,7 @@
       <c r="Y39" s="38"/>
       <c r="Z39" s="38"/>
     </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="20" t="str">
         <f t="shared" ref="B40:B45" si="26">B7</f>
         <v/>
@@ -16141,7 +16140,7 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
     </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="22" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16179,7 +16178,7 @@
       <c r="P41" s="3"/>
       <c r="Q41" s="3"/>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="22" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16217,7 +16216,7 @@
       <c r="P42" s="3"/>
       <c r="Q42" s="3"/>
     </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" s="22" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16255,7 +16254,7 @@
       <c r="P43" s="3"/>
       <c r="Q43" s="3"/>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="22" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16293,7 +16292,7 @@
       <c r="P44" s="3"/>
       <c r="Q44" s="3"/>
     </row>
-    <row r="45" spans="2:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B45" s="24" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -16331,7 +16330,7 @@
       <c r="P45" s="3"/>
       <c r="Q45" s="3"/>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="38"/>
       <c r="C46" s="2"/>
       <c r="D46" s="38"/>

--- a/EASE/EASE(S)-Repeated.xlsx
+++ b/EASE/EASE(S)-Repeated.xlsx
@@ -5,10 +5,10 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\GitHub\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="114_{49DAEF63-8251-465C-B396-F9CA6004331D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{91F1CBAF-28EA-46B4-AB59-AD5A62980080}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{61ED2949-0949-427E-810C-BDBEAAC0A1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{813A8743-0857-45D3-9A2F-A34982C2A410}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1409,7 +1409,7 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1502,9 +1502,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2360,9 +2360,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Means!$K$7:$K$10</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3239,6 +3239,12 @@
               <c:f>OneComp!$B$40:$B$44</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
                 </c:pt>
@@ -3426,7 +3432,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3450,7 +3458,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3474,7 +3484,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3498,7 +3510,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3683,6 +3697,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$H$18:$H$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4147,7 +4202,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4184,7 +4241,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4209,7 +4268,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -4275,6 +4336,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$D$24:$D$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4447,6 +4516,12 @@
               <c:f>OneComp!$K$7:$K$11</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
                 <c:pt idx="3">
                   <c:v>Subset</c:v>
                 </c:pt>
@@ -4610,7 +4685,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4634,7 +4711,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4658,7 +4737,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4682,7 +4763,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4706,7 +4789,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4730,7 +4815,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4891,6 +4978,47 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="11"/>
+                  <c:pt idx="0">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>#N/A</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5358,7 +5486,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5395,7 +5525,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5420,7 +5552,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:xForSave val="1"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -5486,6 +5620,14 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>OneComp!$M$24:$M$26</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="3"/>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5661,9 +5803,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6845,9 +6987,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:multiLvlStrRef>
+            <c:strRef>
               <c:f>Pairwise!$K$7:$K$12</c:f>
-            </c:multiLvlStrRef>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8084,15 +8226,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3810</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>137158</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22858</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>173353</xdr:rowOff>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>62863</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8122,15 +8264,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>11430</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>179067</xdr:rowOff>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>22857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>22860</xdr:colOff>
+      <xdr:colOff>26670</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>24762</xdr:rowOff>
+      <xdr:rowOff>55242</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9020,8 +9162,8 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K26" r:id="rId2" xr:uid="{7022300B-EB63-4A5A-A260-037A2479C741}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{C2177E05-71A8-4C25-AD6D-2652474C4813}"/>
+    <hyperlink ref="K26" r:id="rId2" xr:uid="{4DEC45AC-8205-4124-9FFE-396603773871}"/>
+    <hyperlink ref="K25" r:id="rId3" xr:uid="{8ED4693F-B13C-454D-B81F-7627600DE9C7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>
@@ -9037,7 +9179,7 @@
   <dimension ref="B1:AB43"/>
   <sheetViews>
     <sheetView showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10149,7 +10291,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:AA44"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L40" sqref="L40:L43"/>
     </sheetView>
   </sheetViews>
@@ -12057,7 +12199,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AA45"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showRuler="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
@@ -12197,7 +12339,9 @@
       <c r="Z6" s="40"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="111"/>
+      <c r="B7" s="111">
+        <v>2</v>
+      </c>
       <c r="C7" s="70" t="str">
         <f>IF(B7="","",VLOOKUP($B7,Data!$U$7:$X$10,2,FALSE))</f>
         <v/>
@@ -12222,9 +12366,9 @@
         <f>IFERROR(D7+TINV(1-$H$4/100,C7-1)*F7,"")</f>
         <v/>
       </c>
-      <c r="K7" s="131" t="str">
+      <c r="K7" s="131">
         <f>IF(B7="","",B7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="L7" s="163" t="str">
         <f>IFERROR((D7-C40)/E7,"")</f>
@@ -12261,7 +12405,9 @@
       <c r="Z7" s="40"/>
     </row>
     <row r="8" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="195"/>
+      <c r="B8" s="195">
+        <v>1</v>
+      </c>
       <c r="C8" s="74" t="str">
         <f>IF(B8="","",VLOOKUP($B8,Data!$U$7:$X$10,2,FALSE))</f>
         <v/>
@@ -12286,9 +12432,9 @@
         <f>IFERROR(D8+TINV(1-$H$4/100,C8-1)*F8,"")</f>
         <v/>
       </c>
-      <c r="K8" s="166" t="str">
+      <c r="K8" s="166">
         <f>IF(B8="","",B8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="L8" s="167" t="str">
         <f>IFERROR((D8-C41)/E8,"")</f>
@@ -12401,9 +12547,9 @@
       <c r="B11" s="142" t="s">
         <v>101</v>
       </c>
-      <c r="C11" s="182" t="e">
+      <c r="C11" s="182" t="str">
         <f>VLOOKUP(SMALL(B7:B8,1),Data!V22:Z25,MATCH(LARGE(B7:B8,1),Data!V21:Z21,0),FALSE)</f>
-        <v>#NUM!</v>
+        <v/>
       </c>
       <c r="D11" s="143" t="str">
         <f>IFERROR(D8-D7,"")</f>
@@ -13806,9 +13952,9 @@
       <c r="Z39" s="162"/>
     </row>
     <row r="40" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="70" t="str">
+      <c r="B40" s="70">
         <f>IF(B7="","",B7)</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C40" s="135"/>
       <c r="D40" s="34" t="str">
@@ -13831,9 +13977,9 @@
         <f>IFERROR(IF(TDIST(ABS(F40),G40,2)&lt;0.001,"&lt; 0.001",TDIST(ABS(F40),G40,2)),"")</f>
         <v/>
       </c>
-      <c r="K40" s="70" t="str">
+      <c r="K40" s="70">
         <f>K7</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="L40" s="180" t="s">
         <v>115</v>
@@ -13854,9 +14000,9 @@
       <c r="Z40" s="162"/>
     </row>
     <row r="41" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B41" s="141" t="str">
+      <c r="B41" s="141">
         <f>IF(B8="","",B8)</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="C41" s="145"/>
       <c r="D41" s="66" t="str">
@@ -13879,9 +14025,9 @@
         <f>IFERROR(IF(TDIST(ABS(F41),G41,2)&lt;0.001,"&lt; 0.001",TDIST(ABS(F41),G41,2)),"")</f>
         <v/>
       </c>
-      <c r="K41" s="141" t="str">
+      <c r="K41" s="141">
         <f>K8</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="L41" s="181" t="s">
         <v>115</v>

--- a/EASE/EASE(S)-Repeated.xlsx
+++ b/EASE/EASE(S)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cwendorf\OneDrive - UWSP\Research\Statistics\BASE\EASE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="114_{61ED2949-0949-427E-810C-BDBEAAC0A1F2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{813A8743-0857-45D3-9A2F-A34982C2A410}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5257B5EF-085A-40E2-A438-99CD76C96E44}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,9 +400,6 @@
     <t>Auto</t>
   </si>
   <si>
-    <t>http://www4.uwsp.edu/psych/cw/</t>
-  </si>
-  <si>
     <t>Using this Module</t>
   </si>
   <si>
@@ -437,6 +434,9 @@
   </si>
   <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
+  </si>
+  <si>
+    <t>http://cwendorf.github.io</t>
   </si>
 </sst>
 </file>
@@ -1387,18 +1387,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1424,6 +1412,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1502,9 +1502,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$B$7:$B$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -2360,9 +2360,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Means!$K$7:$K$10</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -3336,7 +3336,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3360,7 +3362,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3384,7 +3388,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3408,7 +3414,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3433,7 +3441,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3459,7 +3467,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3485,7 +3493,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3511,7 +3519,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -3536,7 +3544,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3560,7 +3570,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3584,7 +3596,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-A25B-4898-9CD2-430DC0F1F04E}"/>
                 </c:ext>
@@ -3697,47 +3711,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$H$18:$H$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4203,7 +4176,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -4242,7 +4215,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -4269,7 +4242,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000018-A25B-4898-9CD2-430DC0F1F04E}"/>
@@ -4336,14 +4309,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$D$24:$D$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000019-A25B-4898-9CD2-430DC0F1F04E}"/>
             </c:ext>
@@ -4613,7 +4578,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4637,7 +4604,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000003-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4661,7 +4630,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000004-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4686,7 +4657,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000005-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4712,7 +4683,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000006-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4738,7 +4709,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000007-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4764,7 +4735,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000008-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4790,7 +4761,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000009-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4816,7 +4787,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000A-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -4841,7 +4812,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000B-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4865,7 +4838,9 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{0000000C-F294-4BAA-A5CB-E3AC3EB706A3}"/>
                 </c:ext>
@@ -4978,47 +4953,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$Q$18:$Q$28</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="11"/>
-                  <c:pt idx="0">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="8">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="9">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                  <c:pt idx="10">
-                    <c:v>#N/A</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{0000000D-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5487,7 +5421,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000016-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5526,7 +5460,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000015-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5553,7 +5487,7 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="0"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000017-F294-4BAA-A5CB-E3AC3EB706A3}"/>
@@ -5620,14 +5554,6 @@
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>OneComp!$M$24:$M$26</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="3"/>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000018-F294-4BAA-A5CB-E3AC3EB706A3}"/>
             </c:ext>
@@ -5803,9 +5729,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$B$7:$B$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -6987,9 +6913,9 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:multiLvlStrRef>
               <c:f>Pairwise!$K$7:$K$12</c:f>
-            </c:strRef>
+            </c:multiLvlStrRef>
           </c:cat>
           <c:val>
             <c:numRef>
@@ -8779,7 +8705,7 @@
   <dimension ref="A1:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="K2" sqref="K2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -8798,7 +8724,7 @@
     <row r="2" spans="1:17" s="119" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="121"/>
       <c r="B2" s="198" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C2" s="198"/>
       <c r="D2" s="198"/>
@@ -8832,7 +8758,7 @@
       <c r="I3" s="197"/>
       <c r="J3" s="197"/>
       <c r="K3" s="200" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L3" s="200"/>
       <c r="M3" s="200"/>
@@ -8844,7 +8770,7 @@
     <row r="4" spans="1:17" s="126" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A4" s="125"/>
       <c r="B4" s="200" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="200"/>
       <c r="D4" s="200"/>
@@ -8855,7 +8781,7 @@
       <c r="I4" s="197"/>
       <c r="J4" s="197"/>
       <c r="K4" s="201" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L4" s="200"/>
       <c r="M4" s="200"/>
@@ -8936,7 +8862,7 @@
     <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K16" s="40" t="s">
         <v>43</v>
@@ -9026,13 +8952,13 @@
     <row r="25" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="29" t="s">
         <v>106</v>
       </c>
       <c r="K25" s="194" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="L25"/>
       <c r="M25"/>
@@ -9050,7 +8976,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="194" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -9071,10 +8997,10 @@
     <row r="28" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A28" s="29"/>
       <c r="B28" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K28" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L28"/>
       <c r="M28"/>
@@ -9114,7 +9040,7 @@
         <v>92</v>
       </c>
       <c r="K31" s="29" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -9129,7 +9055,7 @@
         <v>93</v>
       </c>
       <c r="K32" s="29" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -9209,33 +9135,33 @@
       <c r="O1" s="5"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B2" s="206" t="s">
+      <c r="B2" s="203" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="206"/>
-      <c r="D2" s="206"/>
-      <c r="E2" s="206"/>
-      <c r="F2" s="206"/>
-      <c r="G2" s="206"/>
-      <c r="H2" s="206"/>
-      <c r="K2" s="206" t="s">
-        <v>119</v>
-      </c>
-      <c r="L2" s="206"/>
-      <c r="M2" s="206"/>
-      <c r="N2" s="206"/>
-      <c r="O2" s="206"/>
-      <c r="P2" s="206"/>
-      <c r="Q2" s="206"/>
-      <c r="T2" s="206" t="s">
+      <c r="C2" s="203"/>
+      <c r="D2" s="203"/>
+      <c r="E2" s="203"/>
+      <c r="F2" s="203"/>
+      <c r="G2" s="203"/>
+      <c r="H2" s="203"/>
+      <c r="K2" s="203" t="s">
+        <v>118</v>
+      </c>
+      <c r="L2" s="203"/>
+      <c r="M2" s="203"/>
+      <c r="N2" s="203"/>
+      <c r="O2" s="203"/>
+      <c r="P2" s="203"/>
+      <c r="Q2" s="203"/>
+      <c r="T2" s="203" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="206"/>
-      <c r="V2" s="206"/>
-      <c r="W2" s="206"/>
-      <c r="X2" s="206"/>
-      <c r="Y2" s="206"/>
-      <c r="Z2" s="206"/>
+      <c r="U2" s="203"/>
+      <c r="V2" s="203"/>
+      <c r="W2" s="203"/>
+      <c r="X2" s="203"/>
+      <c r="Y2" s="203"/>
+      <c r="Z2" s="203"/>
     </row>
     <row r="3" spans="2:28" ht="18.3" x14ac:dyDescent="0.7">
       <c r="E3" s="1"/>
@@ -9291,15 +9217,15 @@
       <c r="Z5" s="52"/>
     </row>
     <row r="6" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B6" s="205" t="s">
+      <c r="B6" s="202" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="205"/>
-      <c r="D6" s="205"/>
-      <c r="E6" s="205"/>
-      <c r="F6" s="205"/>
-      <c r="G6" s="205"/>
-      <c r="H6" s="205"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="202"/>
+      <c r="E6" s="202"/>
+      <c r="F6" s="202"/>
+      <c r="G6" s="202"/>
+      <c r="H6" s="202"/>
       <c r="K6" s="183" t="s">
         <v>55</v>
       </c>
@@ -9342,17 +9268,17 @@
         <v>76</v>
       </c>
       <c r="AA6" s="184" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="211"/>
-      <c r="C7" s="211"/>
-      <c r="D7" s="211"/>
-      <c r="E7" s="211"/>
-      <c r="F7" s="211"/>
-      <c r="G7" s="211"/>
-      <c r="H7" s="211"/>
+      <c r="B7" s="208"/>
+      <c r="C7" s="208"/>
+      <c r="D7" s="208"/>
+      <c r="E7" s="208"/>
+      <c r="F7" s="208"/>
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
       <c r="K7" s="129" t="str">
         <f>IF($B$22="","",$B$22)</f>
         <v/>
@@ -9399,13 +9325,13 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B8" s="212"/>
-      <c r="C8" s="212"/>
-      <c r="D8" s="212"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="212"/>
-      <c r="H8" s="212"/>
+      <c r="B8" s="209"/>
+      <c r="C8" s="209"/>
+      <c r="D8" s="209"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="209"/>
+      <c r="H8" s="209"/>
       <c r="K8" s="130" t="str">
         <f>IF($B$23="","",$B$23)</f>
         <v/>
@@ -9505,15 +9431,15 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B10" s="210" t="s">
+      <c r="B10" s="207" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="210"/>
-      <c r="D10" s="210"/>
-      <c r="E10" s="210"/>
-      <c r="F10" s="210"/>
-      <c r="G10" s="210"/>
-      <c r="H10" s="210"/>
+      <c r="C10" s="207"/>
+      <c r="D10" s="207"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
       <c r="K10" s="130" t="str">
         <f>IF($B$25="","",$B$25)</f>
         <v/>
@@ -9559,13 +9485,13 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B11" s="207"/>
-      <c r="C11" s="207"/>
-      <c r="D11" s="207"/>
-      <c r="E11" s="207"/>
-      <c r="F11" s="207"/>
-      <c r="G11" s="207"/>
-      <c r="H11" s="207"/>
+      <c r="B11" s="204"/>
+      <c r="C11" s="204"/>
+      <c r="D11" s="204"/>
+      <c r="E11" s="204"/>
+      <c r="F11" s="204"/>
+      <c r="G11" s="204"/>
+      <c r="H11" s="204"/>
       <c r="K11" s="79" t="s">
         <v>46</v>
       </c>
@@ -9620,13 +9546,13 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B12" s="208"/>
-      <c r="C12" s="208"/>
-      <c r="D12" s="208"/>
-      <c r="E12" s="208"/>
-      <c r="F12" s="208"/>
-      <c r="G12" s="208"/>
-      <c r="H12" s="208"/>
+      <c r="B12" s="205"/>
+      <c r="C12" s="205"/>
+      <c r="D12" s="205"/>
+      <c r="E12" s="205"/>
+      <c r="F12" s="205"/>
+      <c r="G12" s="205"/>
+      <c r="H12" s="205"/>
       <c r="K12" s="38"/>
       <c r="L12" s="38"/>
       <c r="M12" s="38"/>
@@ -9644,13 +9570,13 @@
       <c r="Z12" s="38"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.55000000000000004">
-      <c r="B13" s="208"/>
-      <c r="C13" s="208"/>
-      <c r="D13" s="208"/>
-      <c r="E13" s="208"/>
-      <c r="F13" s="208"/>
-      <c r="G13" s="208"/>
-      <c r="H13" s="208"/>
+      <c r="B13" s="205"/>
+      <c r="C13" s="205"/>
+      <c r="D13" s="205"/>
+      <c r="E13" s="205"/>
+      <c r="F13" s="205"/>
+      <c r="G13" s="205"/>
+      <c r="H13" s="205"/>
       <c r="K13" s="52"/>
       <c r="L13" s="52"/>
       <c r="M13" s="52"/>
@@ -9670,13 +9596,13 @@
       <c r="Z13" s="52"/>
     </row>
     <row r="14" spans="2:28" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="209"/>
-      <c r="C14" s="209"/>
-      <c r="D14" s="209"/>
-      <c r="E14" s="209"/>
-      <c r="F14" s="209"/>
-      <c r="G14" s="209"/>
-      <c r="H14" s="209"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
+      <c r="E14" s="206"/>
+      <c r="F14" s="206"/>
+      <c r="G14" s="206"/>
+      <c r="H14" s="206"/>
       <c r="K14" s="52"/>
       <c r="L14" s="52"/>
       <c r="M14" s="52"/>
@@ -9780,16 +9706,16 @@
       <c r="Z20" s="52"/>
     </row>
     <row r="21" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="205" t="s">
+      <c r="B21" s="202" t="s">
         <v>61</v>
       </c>
-      <c r="C21" s="205"/>
-      <c r="D21" s="205" t="s">
+      <c r="C21" s="202"/>
+      <c r="D21" s="202" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="205"/>
-      <c r="F21" s="205"/>
-      <c r="G21" s="205"/>
+      <c r="E21" s="202"/>
+      <c r="F21" s="202"/>
+      <c r="G21" s="202"/>
       <c r="H21" s="11" t="s">
         <v>25</v>
       </c>
@@ -9834,12 +9760,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="203"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
+      <c r="B22" s="211"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="211"/>
+      <c r="E22" s="211"/>
+      <c r="F22" s="211"/>
+      <c r="G22" s="211"/>
       <c r="H22" s="111"/>
       <c r="K22" s="129" t="str">
         <f>IF($B$22="","",$B$22)</f>
@@ -9881,12 +9807,12 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="204"/>
-      <c r="C23" s="204"/>
-      <c r="D23" s="204"/>
-      <c r="E23" s="204"/>
-      <c r="F23" s="204"/>
-      <c r="G23" s="204"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="212"/>
+      <c r="D23" s="212"/>
+      <c r="E23" s="212"/>
+      <c r="F23" s="212"/>
+      <c r="G23" s="212"/>
       <c r="H23" s="51"/>
       <c r="K23" s="130" t="str">
         <f>IF($B$23="","",$B$23)</f>
@@ -9925,12 +9851,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="204"/>
-      <c r="C24" s="204"/>
-      <c r="D24" s="204"/>
-      <c r="E24" s="204"/>
-      <c r="F24" s="204"/>
-      <c r="G24" s="204"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="212"/>
+      <c r="D24" s="212"/>
+      <c r="E24" s="212"/>
+      <c r="F24" s="212"/>
+      <c r="G24" s="212"/>
       <c r="H24" s="51"/>
       <c r="K24" s="130" t="str">
         <f>IF($B$24="","",$B$24)</f>
@@ -9966,12 +9892,12 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="202"/>
-      <c r="C25" s="202"/>
-      <c r="D25" s="202"/>
-      <c r="E25" s="202"/>
-      <c r="F25" s="202"/>
-      <c r="G25" s="202"/>
+      <c r="B25" s="210"/>
+      <c r="C25" s="210"/>
+      <c r="D25" s="210"/>
+      <c r="E25" s="210"/>
+      <c r="F25" s="210"/>
+      <c r="G25" s="210"/>
       <c r="H25" s="112"/>
       <c r="K25" s="79" t="str">
         <f>IF($B$25="","",$B$25)</f>
@@ -10260,6 +10186,14 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -10269,14 +10203,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/EASE/EASE(S)-Repeated.xlsx
+++ b/EASE/EASE(S)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C885D344-498D-4F32-B95A-15439406BE2F}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C8568AE-649F-47AA-8126-CA3551F70B4C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
     <definedName name="SPSS2" localSheetId="3">[3]Data!#REF!</definedName>
     <definedName name="SPSS2">[3]Data!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -424,19 +424,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheet].</t>
-  </si>
-  <si>
-    <t>Version: 2.20200104</t>
-  </si>
-  <si>
     <t>https://cwendorf.github.io/BASE/EASE</t>
   </si>
   <si>
     <t>http://cwendorf.github.io</t>
   </si>
   <si>
-    <t>Wendorf, C. A. (2020).</t>
+    <t>Version: 2.210601</t>
+  </si>
+  <si>
+    <t>Wendorf, C. A. (2021).</t>
+  </si>
+  <si>
+    <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
   </si>
 </sst>
 </file>
@@ -1164,18 +1164,6 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1201,6 +1189,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8478,8 +8478,8 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8527,7 +8527,7 @@
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
       <c r="K3" s="124" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L3" s="124"/>
       <c r="M3" s="124"/>
@@ -8547,7 +8547,7 @@
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
       <c r="K4" s="125" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L4" s="124"/>
       <c r="M4" s="124"/>
@@ -8720,7 +8720,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="119" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8765,7 +8765,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8779,7 +8779,7 @@
         <v>91</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8793,7 +8793,7 @@
         <v>92</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8868,33 +8868,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="K2" s="127" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="T2" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="2:28" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -8930,15 +8930,15 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="126" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
+      <c r="C6" s="126"/>
+      <c r="D6" s="126"/>
+      <c r="E6" s="126"/>
+      <c r="F6" s="126"/>
+      <c r="G6" s="126"/>
+      <c r="H6" s="126"/>
       <c r="K6" s="65" t="s">
         <v>54</v>
       </c>
@@ -8984,13 +8984,13 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="135"/>
-      <c r="C7" s="135"/>
-      <c r="D7" s="135"/>
-      <c r="E7" s="135"/>
-      <c r="F7" s="135"/>
-      <c r="G7" s="135"/>
-      <c r="H7" s="135"/>
+      <c r="B7" s="132"/>
+      <c r="C7" s="132"/>
+      <c r="D7" s="132"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132"/>
+      <c r="H7" s="132"/>
       <c r="K7" s="54" t="str">
         <f>IF($B$22="","",$B$22)</f>
         <v/>
@@ -9036,13 +9036,13 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="136"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="136"/>
-      <c r="F8" s="136"/>
-      <c r="G8" s="136"/>
-      <c r="H8" s="136"/>
+      <c r="B8" s="133"/>
+      <c r="C8" s="133"/>
+      <c r="D8" s="133"/>
+      <c r="E8" s="133"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
       <c r="K8" s="56" t="str">
         <f>IF($B$23="","",$B$23)</f>
         <v/>
@@ -9140,15 +9140,15 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="134" t="s">
+      <c r="B10" s="131" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="134"/>
-      <c r="D10" s="134"/>
-      <c r="E10" s="134"/>
-      <c r="F10" s="134"/>
-      <c r="G10" s="134"/>
-      <c r="H10" s="134"/>
+      <c r="C10" s="131"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="131"/>
+      <c r="H10" s="131"/>
       <c r="K10" s="56" t="str">
         <f>IF($B$25="","",$B$25)</f>
         <v/>
@@ -9194,13 +9194,13 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
       <c r="K11" s="58" t="s">
         <v>45</v>
       </c>
@@ -9254,13 +9254,13 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" s="132"/>
-      <c r="C12" s="132"/>
-      <c r="D12" s="132"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="132"/>
-      <c r="G12" s="132"/>
-      <c r="H12" s="132"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -9277,13 +9277,13 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="132"/>
-      <c r="C13" s="132"/>
-      <c r="D13" s="132"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="132"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="129"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -9295,13 +9295,13 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="133"/>
-      <c r="C14" s="133"/>
-      <c r="D14" s="133"/>
-      <c r="E14" s="133"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="133"/>
-      <c r="H14" s="133"/>
+      <c r="B14" s="130"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="130"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -9380,16 +9380,16 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="129" t="s">
+      <c r="B21" s="126" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129" t="s">
+      <c r="C21" s="126"/>
+      <c r="D21" s="126" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="126"/>
+      <c r="G21" s="126"/>
       <c r="H21" s="9" t="s">
         <v>25</v>
       </c>
@@ -9433,12 +9433,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="127"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="127"/>
-      <c r="E22" s="127"/>
-      <c r="F22" s="127"/>
-      <c r="G22" s="127"/>
+      <c r="B22" s="135"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
       <c r="H22" s="80"/>
       <c r="K22" s="54" t="str">
         <f>IF($B$22="","",$B$22)</f>
@@ -9479,12 +9479,12 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="128"/>
-      <c r="C23" s="128"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
+      <c r="B23" s="136"/>
+      <c r="C23" s="136"/>
+      <c r="D23" s="136"/>
+      <c r="E23" s="136"/>
+      <c r="F23" s="136"/>
+      <c r="G23" s="136"/>
       <c r="H23" s="40"/>
       <c r="K23" s="56" t="str">
         <f>IF($B$23="","",$B$23)</f>
@@ -9522,12 +9522,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="128"/>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
+      <c r="B24" s="136"/>
+      <c r="C24" s="136"/>
+      <c r="D24" s="136"/>
+      <c r="E24" s="136"/>
+      <c r="F24" s="136"/>
+      <c r="G24" s="136"/>
       <c r="H24" s="40"/>
       <c r="K24" s="56" t="str">
         <f>IF($B$24="","",$B$24)</f>
@@ -9562,12 +9562,12 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="126"/>
-      <c r="C25" s="126"/>
-      <c r="D25" s="126"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="126"/>
-      <c r="G25" s="126"/>
+      <c r="B25" s="134"/>
+      <c r="C25" s="134"/>
+      <c r="D25" s="134"/>
+      <c r="E25" s="134"/>
+      <c r="F25" s="134"/>
+      <c r="G25" s="134"/>
       <c r="H25" s="81"/>
       <c r="K25" s="58" t="str">
         <f>IF($B$25="","",$B$25)</f>
@@ -9839,6 +9839,14 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="17">
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -9848,14 +9856,6 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9885,33 +9885,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="K2" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="T2" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11710,24 +11710,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
-      <c r="K2" s="130" t="s">
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
+      <c r="K2" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13482,34 +13482,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="130" t="s">
+      <c r="B2" s="127" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="130"/>
-      <c r="D2" s="130"/>
-      <c r="E2" s="130"/>
-      <c r="F2" s="130"/>
-      <c r="G2" s="130"/>
-      <c r="H2" s="130"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
+      <c r="G2" s="127"/>
+      <c r="H2" s="127"/>
       <c r="I2"/>
-      <c r="K2" s="130" t="s">
+      <c r="K2" s="127" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="130"/>
-      <c r="M2" s="130"/>
-      <c r="N2" s="130"/>
-      <c r="O2" s="130"/>
-      <c r="P2" s="130"/>
-      <c r="Q2" s="130"/>
-      <c r="T2" s="130" t="s">
+      <c r="L2" s="127"/>
+      <c r="M2" s="127"/>
+      <c r="N2" s="127"/>
+      <c r="O2" s="127"/>
+      <c r="P2" s="127"/>
+      <c r="Q2" s="127"/>
+      <c r="T2" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="130"/>
-      <c r="V2" s="130"/>
-      <c r="W2" s="130"/>
-      <c r="X2" s="130"/>
-      <c r="Y2" s="130"/>
-      <c r="Z2" s="130"/>
+      <c r="U2" s="127"/>
+      <c r="V2" s="127"/>
+      <c r="W2" s="127"/>
+      <c r="X2" s="127"/>
+      <c r="Y2" s="127"/>
+      <c r="Z2" s="127"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-Repeated.xlsx
+++ b/EASE/EASE(S)-Repeated.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/Research/Statistics/BASE/EASE/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="11" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5C8568AE-649F-47AA-8126-CA3551F70B4C}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2A50A1-0106-464C-8CEA-34FCD00DFF3B}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Intro" sheetId="19" r:id="rId1"/>
@@ -1164,6 +1164,18 @@
       <alignment horizontal="center"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1189,18 +1201,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -8153,9 +8153,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -8193,9 +8193,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8228,26 +8228,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -8280,26 +8263,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -8478,7 +8444,7 @@
   </sheetPr>
   <dimension ref="B2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
@@ -8814,7 +8780,7 @@
       <c r="K34" s="119"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="1" selectLockedCells="1" selectUnlockedCells="1"/>
+  <sheetProtection sheet="1"/>
   <mergeCells count="6">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="K2:Q2"/>
@@ -8868,33 +8834,33 @@
       <c r="O1"/>
     </row>
     <row r="2" spans="2:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="K2" s="127" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="T2" s="127" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="2:28" ht="18" x14ac:dyDescent="0.35">
       <c r="E3" s="1"/>
@@ -8930,15 +8896,15 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="126" t="s">
+      <c r="B6" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="126"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
       <c r="K6" s="65" t="s">
         <v>54</v>
       </c>
@@ -8984,13 +8950,13 @@
       </c>
     </row>
     <row r="7" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
+      <c r="B7" s="135"/>
+      <c r="C7" s="135"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135"/>
       <c r="K7" s="54" t="str">
         <f>IF($B$22="","",$B$22)</f>
         <v/>
@@ -9036,13 +9002,13 @@
       </c>
     </row>
     <row r="8" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="133"/>
-      <c r="C8" s="133"/>
-      <c r="D8" s="133"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
+      <c r="B8" s="136"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="136"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
       <c r="K8" s="56" t="str">
         <f>IF($B$23="","",$B$23)</f>
         <v/>
@@ -9140,15 +9106,15 @@
       </c>
     </row>
     <row r="10" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="131" t="s">
+      <c r="B10" s="134" t="s">
         <v>27</v>
       </c>
-      <c r="C10" s="131"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
+      <c r="C10" s="134"/>
+      <c r="D10" s="134"/>
+      <c r="E10" s="134"/>
+      <c r="F10" s="134"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="134"/>
       <c r="K10" s="56" t="str">
         <f>IF($B$25="","",$B$25)</f>
         <v/>
@@ -9194,13 +9160,13 @@
       </c>
     </row>
     <row r="11" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="128"/>
-      <c r="C11" s="128"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="128"/>
-      <c r="G11" s="128"/>
-      <c r="H11" s="128"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
       <c r="K11" s="58" t="s">
         <v>45</v>
       </c>
@@ -9254,13 +9220,13 @@
       </c>
     </row>
     <row r="12" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
+      <c r="B12" s="132"/>
+      <c r="C12" s="132"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
       <c r="K12" s="8"/>
       <c r="L12" s="8"/>
       <c r="M12" s="8"/>
@@ -9277,13 +9243,13 @@
       <c r="Z12" s="8"/>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.3">
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
+      <c r="B13" s="132"/>
+      <c r="C13" s="132"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="132"/>
       <c r="K13"/>
       <c r="L13"/>
       <c r="M13"/>
@@ -9295,13 +9261,13 @@
       </c>
     </row>
     <row r="14" spans="2:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="130"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="133"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="133"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
       <c r="K14"/>
       <c r="L14"/>
       <c r="M14"/>
@@ -9380,16 +9346,16 @@
       <c r="P20"/>
     </row>
     <row r="21" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="126" t="s">
+      <c r="B21" s="129" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="126"/>
-      <c r="D21" s="126" t="s">
+      <c r="C21" s="129"/>
+      <c r="D21" s="129" t="s">
         <v>24</v>
       </c>
-      <c r="E21" s="126"/>
-      <c r="F21" s="126"/>
-      <c r="G21" s="126"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="129"/>
+      <c r="G21" s="129"/>
       <c r="H21" s="9" t="s">
         <v>25</v>
       </c>
@@ -9433,12 +9399,12 @@
       </c>
     </row>
     <row r="22" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B22" s="135"/>
-      <c r="C22" s="135"/>
-      <c r="D22" s="135"/>
-      <c r="E22" s="135"/>
-      <c r="F22" s="135"/>
-      <c r="G22" s="135"/>
+      <c r="B22" s="127"/>
+      <c r="C22" s="127"/>
+      <c r="D22" s="127"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="127"/>
+      <c r="G22" s="127"/>
       <c r="H22" s="80"/>
       <c r="K22" s="54" t="str">
         <f>IF($B$22="","",$B$22)</f>
@@ -9479,12 +9445,12 @@
       </c>
     </row>
     <row r="23" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B23" s="136"/>
-      <c r="C23" s="136"/>
-      <c r="D23" s="136"/>
-      <c r="E23" s="136"/>
-      <c r="F23" s="136"/>
-      <c r="G23" s="136"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="128"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
       <c r="H23" s="40"/>
       <c r="K23" s="56" t="str">
         <f>IF($B$23="","",$B$23)</f>
@@ -9522,12 +9488,12 @@
       </c>
     </row>
     <row r="24" spans="2:26" x14ac:dyDescent="0.3">
-      <c r="B24" s="136"/>
-      <c r="C24" s="136"/>
-      <c r="D24" s="136"/>
-      <c r="E24" s="136"/>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
       <c r="H24" s="40"/>
       <c r="K24" s="56" t="str">
         <f>IF($B$24="","",$B$24)</f>
@@ -9562,12 +9528,12 @@
       </c>
     </row>
     <row r="25" spans="2:26" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="134"/>
-      <c r="C25" s="134"/>
-      <c r="D25" s="134"/>
-      <c r="E25" s="134"/>
-      <c r="F25" s="134"/>
-      <c r="G25" s="134"/>
+      <c r="B25" s="126"/>
+      <c r="C25" s="126"/>
+      <c r="D25" s="126"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="126"/>
+      <c r="G25" s="126"/>
       <c r="H25" s="81"/>
       <c r="K25" s="58" t="str">
         <f>IF($B$25="","",$B$25)</f>
@@ -9839,14 +9805,6 @@
   </sheetData>
   <sheetProtection sheet="1" selectLockedCells="1" sort="0" autoFilter="0"/>
   <mergeCells count="17">
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:G23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:G24"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:G21"/>
     <mergeCell ref="T2:Z2"/>
@@ -9856,6 +9814,14 @@
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B6:H6"/>
     <mergeCell ref="K2:Q2"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:G23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:G24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9885,33 +9851,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="K2" s="127" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="T2" s="127" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
@@ -11710,24 +11676,24 @@
   <sheetData>
     <row r="1" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="K2" s="127" t="s">
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
+      <c r="K2" s="130" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
     </row>
     <row r="4" spans="2:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="45" t="s">
@@ -13482,34 +13448,34 @@
   <sheetData>
     <row r="2" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="127" t="s">
+      <c r="B2" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="127"/>
-      <c r="D2" s="127"/>
-      <c r="E2" s="127"/>
-      <c r="F2" s="127"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="130"/>
       <c r="I2"/>
-      <c r="K2" s="127" t="s">
+      <c r="K2" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="127"/>
-      <c r="M2" s="127"/>
-      <c r="N2" s="127"/>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="T2" s="127" t="s">
+      <c r="L2" s="130"/>
+      <c r="M2" s="130"/>
+      <c r="N2" s="130"/>
+      <c r="O2" s="130"/>
+      <c r="P2" s="130"/>
+      <c r="Q2" s="130"/>
+      <c r="T2" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="U2" s="127"/>
-      <c r="V2" s="127"/>
-      <c r="W2" s="127"/>
-      <c r="X2" s="127"/>
-      <c r="Y2" s="127"/>
-      <c r="Z2" s="127"/>
+      <c r="U2" s="130"/>
+      <c r="V2" s="130"/>
+      <c r="W2" s="130"/>
+      <c r="X2" s="130"/>
+      <c r="Y2" s="130"/>
+      <c r="Z2" s="130"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3"/>

--- a/EASE/EASE(S)-Repeated.xlsx
+++ b/EASE/EASE(S)-Repeated.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2D2A50A1-0106-464C-8CEA-34FCD00DFF3B}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2B1E130-26DD-4B7C-81ED-C3EA65589523}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,19 +424,19 @@
     <t>How to Cite</t>
   </si>
   <si>
-    <t>https://cwendorf.github.io/BASE/EASE</t>
-  </si>
-  <si>
     <t>http://cwendorf.github.io</t>
-  </si>
-  <si>
-    <t>Version: 2.210601</t>
   </si>
   <si>
     <t>Wendorf, C. A. (2021).</t>
   </si>
   <si>
     <t>EASE: Estimation Approach to Statistics with Excel [Excel Spreadsheets].</t>
+  </si>
+  <si>
+    <t>https://github.com/cwendorf/BASE/tree/main/EASE</t>
+  </si>
+  <si>
+    <t>Version: 2.241027</t>
   </si>
 </sst>
 </file>
@@ -8152,6 +8152,10 @@
 </externalLink>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -8445,7 +8449,7 @@
   <dimension ref="B2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+      <selection activeCell="K4" sqref="K4:Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8493,7 +8497,7 @@
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
       <c r="K3" s="124" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L3" s="124"/>
       <c r="M3" s="124"/>
@@ -8513,7 +8517,7 @@
       <c r="G4" s="124"/>
       <c r="H4" s="124"/>
       <c r="K4" s="125" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L4" s="124"/>
       <c r="M4" s="124"/>
@@ -8686,7 +8690,7 @@
         <v>8</v>
       </c>
       <c r="K26" s="119" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L26"/>
       <c r="M26"/>
@@ -8731,7 +8735,7 @@
         <v>90</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L30"/>
       <c r="M30"/>
@@ -8745,7 +8749,7 @@
         <v>91</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="L31"/>
       <c r="M31"/>
@@ -8759,7 +8763,7 @@
         <v>92</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="L32"/>
       <c r="M32"/>
@@ -8790,9 +8794,9 @@
     <mergeCell ref="K4:Q4"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="K4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="K26" r:id="rId2" xr:uid="{4DEC45AC-8205-4124-9FFE-396603773871}"/>
-    <hyperlink ref="K25" r:id="rId3" xr:uid="{8ED4693F-B13C-454D-B81F-7627600DE9C7}"/>
+    <hyperlink ref="K26" r:id="rId1" xr:uid="{4DEC45AC-8205-4124-9FFE-396603773871}"/>
+    <hyperlink ref="K25" r:id="rId2" xr:uid="{8ED4693F-B13C-454D-B81F-7627600DE9C7}"/>
+    <hyperlink ref="K4" r:id="rId3" display="https://cwendorf.github.io/BASE/EASE" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.7" bottom="0.7" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId4"/>

--- a/EASE/EASE(S)-Repeated.xlsx
+++ b/EASE/EASE(S)-Repeated.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwspedu-my.sharepoint.com/personal/cwendorf_uwsp_edu/Documents/GitHub/BASE/EASE/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F2B1E130-26DD-4B7C-81ED-C3EA65589523}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="114_{1A21785E-1147-4725-A82D-73C398442F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DBC7A5A8-B479-4887-8933-007713575F86}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8152,10 +8152,6 @@
 </externalLink>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
